--- a/templates/STOCK_Template.xlsx
+++ b/templates/STOCK_Template.xlsx
@@ -77,9 +77,6 @@
     <t>STOCK NUMBER:</t>
   </si>
   <si>
-    <t>Fund Cluster:  GAA 101</t>
-  </si>
-  <si>
     <t>STOCK CARD</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   <si>
     <t xml:space="preserve"> Republic of the Philippines</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fund Cluster: </t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -224,6 +209,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,19 +272,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -326,12 +306,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,132 +356,147 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1554,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,156 +1596,157 @@
     <col min="9" max="9" width="8.88671875" style="3"/>
     <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="H8" s="42" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" s="31" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -1736,10 +1762,10 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="32" t="s">
         <v>6</v>
       </c>
@@ -1747,13 +1773,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="31" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:12" s="13" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -1766,909 +1792,920 @@
       <c r="H14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="30" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" s="31" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:12" s="13" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="6"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="40"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="6"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="40"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="6"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="40"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="6"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="40"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="40"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="40"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="40"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="6"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="6"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="6"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="40"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="40"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="6"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="40"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="6"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="40"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="6"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="40"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="6"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="40"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="6"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="40"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="6"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="40"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="6"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="40"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="40"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="6"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="40"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="6"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="40"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="6"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="40"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="6"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="40"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="6"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="40"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="6"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="40"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="6"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="40"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="6"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="40"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="6"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="40"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="6"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="40"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="6"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="6"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="52"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="6"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="52"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="6"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="52"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="6"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="52"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="6"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="52"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="6"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="52"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="6"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="52"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="6"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I8:K8"/>
+  <mergeCells count="30">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A1:L1"/>
@@ -2678,23 +2715,11 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
